--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_24_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_24_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777474.9767885242</v>
+        <v>808498.9400602777</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2987176.871349836</v>
+        <v>3005708.072387988</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19688072.28893812</v>
+        <v>19600786.20290227</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6206372.406158919</v>
+        <v>6235945.016442256</v>
       </c>
     </row>
     <row r="11">
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9337,7 +9339,7 @@
         <v>42.39083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>35.10170646165069</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>16.98916917821538</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.20189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>17.08626916697543</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.62009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>11.83563415094341</v>
@@ -9802,7 +9804,7 @@
         <v>42.24342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>46.41251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>44.67260637956007</v>
@@ -9875,7 +9877,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>81.71354282686062</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>17.08626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10267,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>8.745422743908065</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>27.75337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>42.24342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>46.41251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>44.67260637956007</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>43.96511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.20189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>17.08626916697543</v>
@@ -10516,10 +10518,10 @@
         <v>46.41251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>44.67260637956007</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>42.39083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>35.10170646165069</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>11.83563415094341</v>
@@ -10823,7 +10825,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.20189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>17.08626916697543</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>11.83563415094341</v>
@@ -10984,7 +10986,7 @@
         <v>27.75337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>42.24342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>46.41251183645587</v>
@@ -10993,13 +10995,13 @@
         <v>44.67260637956007</v>
       </c>
       <c r="O40" t="n">
-        <v>42.39083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>35.10170646165069</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.98916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.96511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>81.71354282686062</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11224,7 +11226,7 @@
         <v>42.24342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>46.41251183645587</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>44.67260637956007</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11315,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>17.08626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11461,13 +11463,13 @@
         <v>42.24342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>46.41251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>44.67260637956007</v>
       </c>
       <c r="O46" t="n">
-        <v>42.39083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>35.10170646165069</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.20985652598359</v>
+        <v>22.38652970403251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23270,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H11" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I11" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J11" t="n">
-        <v>104.5332017952089</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K11" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L11" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M11" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P11" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.03131478522786</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R11" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S11" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H12" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I12" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J12" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K12" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.15219841503898</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R12" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S12" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T12" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H13" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I13" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J13" t="n">
-        <v>125.8537622152196</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K13" t="n">
-        <v>90.28551715967404</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L13" t="n">
-        <v>71.35535841596203</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M13" t="n">
-        <v>70.42084805555098</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N13" t="n">
-        <v>57.13868896242874</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O13" t="n">
-        <v>82.78479968626729</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P13" t="n">
-        <v>98.99642773270621</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.6583034654108</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R13" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S13" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H14" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I14" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J14" t="n">
-        <v>104.5332017952089</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K14" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047494</v>
       </c>
       <c r="L14" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M14" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792782</v>
       </c>
       <c r="P14" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.03131478522786</v>
+        <v>62.73788191118646</v>
       </c>
       <c r="R14" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S14" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H15" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I15" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J15" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K15" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.15219841503898</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R15" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694365</v>
       </c>
       <c r="S15" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T15" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H16" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I16" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J16" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K16" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L16" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M16" t="n">
-        <v>24.0083362190951</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N16" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O16" t="n">
-        <v>40.39396643113784</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P16" t="n">
-        <v>63.89472127105553</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R16" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S16" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H17" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I17" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J17" t="n">
-        <v>104.5332017952089</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K17" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L17" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M17" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P17" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.03131478522786</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R17" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S17" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H18" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I18" t="n">
-        <v>110.7704969233986</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J18" t="n">
-        <v>90.05835096065984</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K18" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.77229322635975</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R18" t="n">
-        <v>150.3353054964222</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S18" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H19" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I19" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J19" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K19" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L19" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M19" t="n">
-        <v>70.42084805555098</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N19" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O19" t="n">
-        <v>40.39396643113784</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P19" t="n">
-        <v>63.89472127105553</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R19" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S19" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H20" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I20" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J20" t="n">
-        <v>60.56808185046975</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K20" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L20" t="n">
-        <v>46.85890910139648</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P20" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.03131478522786</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R20" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S20" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H21" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I21" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J21" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K21" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.15219841503898</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R21" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S21" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H22" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I22" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J22" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K22" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L22" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M22" t="n">
-        <v>24.0083362190951</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N22" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O22" t="n">
-        <v>40.39396643113784</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P22" t="n">
-        <v>63.89472127105553</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R22" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S22" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H23" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I23" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J23" t="n">
-        <v>60.56808185046975</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K23" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L23" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M23" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P23" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.03131478522786</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R23" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S23" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H24" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I24" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J24" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K24" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.15219841503898</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R24" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S24" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H25" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I25" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J25" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K25" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L25" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M25" t="n">
-        <v>24.0083362190951</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N25" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O25" t="n">
-        <v>40.39396643113784</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P25" t="n">
-        <v>63.89472127105553</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R25" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S25" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H26" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I26" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J26" t="n">
-        <v>60.56808185046975</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L26" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M26" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P26" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.03131478522786</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R26" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S26" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H27" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I27" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J27" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K27" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.15219841503898</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R27" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S27" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H28" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I28" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J28" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K28" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L28" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M28" t="n">
-        <v>24.0083362190951</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N28" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O28" t="n">
-        <v>40.39396643113784</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P28" t="n">
-        <v>63.89472127105553</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R28" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S28" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H29" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I29" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J29" t="n">
-        <v>104.5332017952089</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K29" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L29" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M29" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P29" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q29" t="n">
-        <v>121.2332123568031</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R29" t="n">
-        <v>196.6932212611833</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S29" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H30" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I30" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J30" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K30" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.15219841503898</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R30" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S30" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H31" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I31" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J31" t="n">
-        <v>125.8537622152196</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K31" t="n">
-        <v>90.28551715967404</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L31" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M31" t="n">
-        <v>70.42084805555098</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N31" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O31" t="n">
-        <v>40.39396643113784</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P31" t="n">
-        <v>63.89472127105553</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R31" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S31" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H32" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I32" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J32" t="n">
-        <v>60.56808185046975</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K32" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L32" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M32" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P32" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.03131478522786</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R32" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S32" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H33" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I33" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J33" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K33" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.15219841503898</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R33" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S33" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H34" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I34" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J34" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K34" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L34" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M34" t="n">
-        <v>24.0083362190951</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N34" t="n">
-        <v>12.46608258286867</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O34" t="n">
-        <v>40.39396643113784</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P34" t="n">
-        <v>63.89472127105553</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R34" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S34" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H35" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I35" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J35" t="n">
-        <v>60.56808185046975</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K35" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L35" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M35" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P35" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.03131478522786</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R35" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S35" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H36" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I36" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J36" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K36" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.77229322635975</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R36" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S36" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H37" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I37" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J37" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K37" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L37" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M37" t="n">
-        <v>24.0083362190951</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N37" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O37" t="n">
-        <v>40.39396643113784</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P37" t="n">
-        <v>63.89472127105553</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R37" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S37" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H38" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I38" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J38" t="n">
-        <v>60.56808185046975</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M38" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P38" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q38" t="n">
-        <v>66.03131478522786</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R38" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S38" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H39" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I39" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J39" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K39" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.77229322635975</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R39" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S39" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H40" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I40" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J40" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K40" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L40" t="n">
-        <v>29.11193601515788</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M40" t="n">
-        <v>24.0083362190951</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N40" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O40" t="n">
-        <v>40.39396643113784</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P40" t="n">
-        <v>63.89472127105553</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.6691342871954</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R40" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S40" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H41" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I41" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J41" t="n">
-        <v>60.56808185046975</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L41" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M41" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P41" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.2332123568031</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R41" t="n">
-        <v>179.6069520942079</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S41" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H42" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I42" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J42" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K42" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.15219841503898</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R42" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S42" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H43" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I43" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J43" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K43" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L43" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M43" t="n">
-        <v>24.0083362190951</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N43" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O43" t="n">
-        <v>40.39396643113784</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P43" t="n">
-        <v>63.89472127105553</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R43" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S43" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7021650953735</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H44" t="n">
-        <v>344.7603701622044</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I44" t="n">
-        <v>234.8408536602682</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J44" t="n">
-        <v>104.5332017952089</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K44" t="n">
-        <v>81.71354282686062</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L44" t="n">
-        <v>46.85890910139648</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M44" t="n">
-        <v>5.355168896241707</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>18.40235814687838</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P44" t="n">
-        <v>66.67337455730507</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.2332123568031</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R44" t="n">
-        <v>196.6932212611833</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S44" t="n">
-        <v>224.3656630336346</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2494311304499</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7505610184289</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7589966138513</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H45" t="n">
-        <v>135.2782271864694</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I45" t="n">
-        <v>108.1378026647665</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J45" t="n">
-        <v>57.27468177215356</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K45" t="n">
-        <v>38.46807500395116</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.033816213831074</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.15219841503898</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R45" t="n">
-        <v>138.4996713454788</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S45" t="n">
-        <v>203.267970798358</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0635572541213</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6327143571366</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0197851451831</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H46" t="n">
-        <v>165.6696684507202</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I46" t="n">
-        <v>161.2820372230017</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J46" t="n">
-        <v>117.1083394713116</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K46" t="n">
-        <v>62.53213791006439</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L46" t="n">
-        <v>29.11193601515788</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M46" t="n">
-        <v>24.0083362190951</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N46" t="n">
-        <v>12.46608258286867</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O46" t="n">
-        <v>40.39396643113784</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P46" t="n">
-        <v>63.89472127105553</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.6691342871954</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R46" t="n">
-        <v>211.4044257512915</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S46" t="n">
-        <v>239.952176997432</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1697270563336</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2078747366419</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1093693.180657392</v>
+        <v>1093677.007994673</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>339342.5895389306</v>
+        <v>349524.607806964</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350443.5697021547</v>
+        <v>360625.587970188</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340935.3349482459</v>
+        <v>349643.0815448899</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>356567.9109104568</v>
+        <v>366482.6107715917</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>356567.9109104568</v>
+        <v>346933.8271063365</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367950.6074262384</v>
+        <v>360625.587970188</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>336891.5528946157</v>
+        <v>360625.587970188</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>356567.9109104568</v>
+        <v>343154.9579655085</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>352515.0998754567</v>
+        <v>360625.587970188</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>363897.7963912385</v>
+        <v>358035.7971828931</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>360260.9830945179</v>
+        <v>344862.2969330343</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340373.8280754746</v>
+        <v>356895.8474763414</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570622.5290386394</v>
+        <v>570614.0911276561</v>
       </c>
       <c r="C2" t="n">
-        <v>570622.529038639</v>
+        <v>570622.5290386393</v>
       </c>
       <c r="D2" t="n">
-        <v>570629.8344309526</v>
+        <v>570629.8344309521</v>
       </c>
       <c r="E2" t="n">
-        <v>173894.8594771839</v>
+        <v>178111.6825064739</v>
       </c>
       <c r="F2" t="n">
-        <v>177700.9098188607</v>
+        <v>181917.7328481507</v>
       </c>
       <c r="G2" t="n">
-        <v>174440.9436175205</v>
+        <v>178152.3020737628</v>
       </c>
       <c r="H2" t="n">
-        <v>179800.6839474214</v>
+        <v>183925.854951489</v>
       </c>
       <c r="I2" t="n">
-        <v>179800.6839474214</v>
+        <v>177223.4148376873</v>
       </c>
       <c r="J2" t="n">
-        <v>183703.3227528323</v>
+        <v>181917.7328481507</v>
       </c>
       <c r="K2" t="n">
-        <v>173054.5040562759</v>
+        <v>181917.7328481507</v>
       </c>
       <c r="L2" t="n">
-        <v>179800.6839474214</v>
+        <v>175927.802560832</v>
       </c>
       <c r="M2" t="n">
-        <v>178411.1487354214</v>
+        <v>181917.7328481507</v>
       </c>
       <c r="N2" t="n">
-        <v>182313.7875408322</v>
+        <v>181029.8045782211</v>
       </c>
       <c r="O2" t="n">
-        <v>181066.8801248138</v>
+        <v>176513.1759211265</v>
       </c>
       <c r="P2" t="n">
-        <v>174248.4269754275</v>
+        <v>180638.9646788319</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851041</v>
+        <v>288523.4171191892</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>40018.63863282892</v>
       </c>
       <c r="D3" t="n">
         <v>32585.62631485736</v>
       </c>
       <c r="E3" t="n">
-        <v>70891.73847659591</v>
+        <v>76986.64207082904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>423078.7314798641</v>
+        <v>438396.5295836808</v>
       </c>
       <c r="C4" t="n">
-        <v>423078.7314798641</v>
+        <v>423078.7314798642</v>
       </c>
       <c r="D4" t="n">
         <v>410331.9762394427</v>
       </c>
       <c r="E4" t="n">
-        <v>6044.10887432838</v>
+        <v>8143.883002889123</v>
       </c>
       <c r="F4" t="n">
-        <v>9850.159216005179</v>
+        <v>11949.93334456592</v>
       </c>
       <c r="G4" t="n">
-        <v>6590.193014665014</v>
+        <v>8184.502570177987</v>
       </c>
       <c r="H4" t="n">
+        <v>13958.0554479043</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7255.615334102525</v>
+      </c>
+      <c r="J4" t="n">
         <v>11949.93334456592</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>11949.93334456592</v>
       </c>
-      <c r="J4" t="n">
-        <v>15852.57214997678</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5203.753453420381</v>
-      </c>
       <c r="L4" t="n">
+        <v>5960.003057247218</v>
+      </c>
+      <c r="M4" t="n">
         <v>11949.93334456592</v>
       </c>
-      <c r="M4" t="n">
-        <v>10560.39813256592</v>
-      </c>
       <c r="N4" t="n">
-        <v>14463.03693797678</v>
+        <v>11062.00507463626</v>
       </c>
       <c r="O4" t="n">
-        <v>13216.12952195835</v>
+        <v>6545.376417541783</v>
       </c>
       <c r="P4" t="n">
-        <v>6397.676372572</v>
+        <v>10671.16517524709</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41112.97456555201</v>
+        <v>40154.92008928722</v>
       </c>
       <c r="C5" t="n">
         <v>41112.97456555201</v>
@@ -26476,40 +26478,40 @@
         <v>41942.44098443807</v>
       </c>
       <c r="E5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="F5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="G5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="H5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="I5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="J5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="K5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="L5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="M5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="N5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="O5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="P5" t="n">
-        <v>10238.45827089306</v>
+        <v>10403.84089748803</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-224440.9311918808</v>
+        <v>-196460.7756645012</v>
       </c>
       <c r="C6" t="n">
-        <v>106430.8229932229</v>
+        <v>66412.18436039415</v>
       </c>
       <c r="D6" t="n">
-        <v>85769.79089221438</v>
+        <v>85769.79089221405</v>
       </c>
       <c r="E6" t="n">
-        <v>86720.55385536655</v>
+        <v>82577.31653526775</v>
       </c>
       <c r="F6" t="n">
-        <v>157612.2923319625</v>
+        <v>159563.9586060967</v>
       </c>
       <c r="G6" t="n">
-        <v>157612.2923319625</v>
+        <v>159563.9586060967</v>
       </c>
       <c r="H6" t="n">
-        <v>157612.2923319625</v>
+        <v>159563.9586060967</v>
       </c>
       <c r="I6" t="n">
-        <v>157612.2923319625</v>
+        <v>159563.9586060967</v>
       </c>
       <c r="J6" t="n">
-        <v>157612.2923319624</v>
+        <v>159563.9586060968</v>
       </c>
       <c r="K6" t="n">
-        <v>157612.2923319624</v>
+        <v>159563.9586060968</v>
       </c>
       <c r="L6" t="n">
-        <v>157612.2923319625</v>
+        <v>159563.9586060967</v>
       </c>
       <c r="M6" t="n">
-        <v>157612.2923319624</v>
+        <v>159563.9586060968</v>
       </c>
       <c r="N6" t="n">
-        <v>157612.2923319624</v>
+        <v>159563.9586060968</v>
       </c>
       <c r="O6" t="n">
-        <v>157612.2923319624</v>
+        <v>159563.9586060967</v>
       </c>
       <c r="P6" t="n">
-        <v>157612.2923319624</v>
+        <v>159563.9586060968</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592665</v>
+        <v>299.4183527195972</v>
       </c>
       <c r="C3" t="n">
         <v>343.3658057592666</v>
@@ -26744,40 +26746,40 @@
         <v>381.4147240567924</v>
       </c>
       <c r="E3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="F3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="G3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="H3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="I3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="J3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="K3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="L3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="N3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="O3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="P3" t="n">
-        <v>469.6540491235347</v>
+        <v>477.2404081416527</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592665</v>
+        <v>299.4183527195972</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>43.94745303966928</v>
       </c>
       <c r="D3" t="n">
         <v>38.04891829752592</v>
       </c>
       <c r="E3" t="n">
-        <v>88.23932506674224</v>
+        <v>95.82568408486031</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27394,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>351.7691192106338</v>
       </c>
       <c r="I2" t="n">
-        <v>254.4136275388651</v>
+        <v>261.2248202355961</v>
       </c>
       <c r="J2" t="n">
-        <v>147.6228773539549</v>
+        <v>162.6177924993846</v>
       </c>
       <c r="K2" t="n">
-        <v>146.2937966433331</v>
+        <v>168.7672874155736</v>
       </c>
       <c r="L2" t="n">
-        <v>126.9764245374035</v>
+        <v>154.8567770823587</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136153</v>
+        <v>125.5236059864443</v>
       </c>
       <c r="N2" t="n">
-        <v>89.21461903306823</v>
+        <v>120.7388558752825</v>
       </c>
       <c r="O2" t="n">
-        <v>103.9426526760898</v>
+        <v>133.7100956040801</v>
       </c>
       <c r="P2" t="n">
-        <v>139.6800368933291</v>
+        <v>165.0858607382366</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.058175334102</v>
+        <v>195.1368909901325</v>
       </c>
       <c r="R2" t="n">
-        <v>228.5844930892465</v>
+        <v>239.6824396098621</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>239.9606215534526</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>220.2452372048549</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.8053101871216</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -27470,49 +27472,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.1251639608333</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>138.8146328796908</v>
       </c>
       <c r="I3" t="n">
-        <v>120.1229753234883</v>
+        <v>123.3775744401053</v>
       </c>
       <c r="J3" t="n">
-        <v>115.7222665296193</v>
+        <v>124.6531352647845</v>
       </c>
       <c r="K3" t="n">
-        <v>82.33179439963288</v>
+        <v>97.59607155587349</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832554</v>
+        <v>62.79893560369186</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215161</v>
+        <v>44.68802237877136</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>24.58528318678634</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261386</v>
+        <v>55.31542844358501</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>72.95571951604457</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.4467558195075</v>
+        <v>122.5132338691918</v>
       </c>
       <c r="R3" t="n">
-        <v>167.2007429781635</v>
+        <v>173.0698009520273</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403173</v>
+        <v>210.0693686688361</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.5394686220007</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6568043141749</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -27549,49 +27551,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.3267675485344</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>168.3990210914259</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>170.5138353165135</v>
       </c>
       <c r="J4" t="n">
-        <v>141.954478094628</v>
+        <v>147.557418132161</v>
       </c>
       <c r="K4" t="n">
-        <v>116.743939294024</v>
+        <v>125.9512909308596</v>
       </c>
       <c r="L4" t="n">
-        <v>105.2130294320152</v>
+        <v>116.9952695469455</v>
       </c>
       <c r="M4" t="n">
-        <v>106.1190149462079</v>
+        <v>118.5417351554377</v>
       </c>
       <c r="N4" t="n">
-        <v>91.98803323375213</v>
+        <v>104.1153689225514</v>
       </c>
       <c r="O4" t="n">
-        <v>114.9738096506549</v>
+        <v>126.1753670254217</v>
       </c>
       <c r="P4" t="n">
-        <v>126.5396865805459</v>
+        <v>136.1245540434928</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.7278282134153</v>
+        <v>176.3638936224054</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>225.2074709056173</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>245.3020430631099</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.4813791433803</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2246192313701</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -27649,7 +27651,7 @@
         <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>89.2146190330682</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O5" t="n">
         <v>103.9426526760898</v>
@@ -27719,7 +27721,7 @@
         <v>115.7222665296193</v>
       </c>
       <c r="K6" t="n">
-        <v>82.33179439963286</v>
+        <v>82.33179439963287</v>
       </c>
       <c r="L6" t="n">
         <v>42.27423123832551</v>
@@ -27892,7 +27894,7 @@
         <v>78.17053334824146</v>
       </c>
       <c r="P8" t="n">
-        <v>117.6841293060644</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q8" t="n">
         <v>159.5401647781143</v>
@@ -27959,7 +27961,7 @@
         <v>69.11625642831203</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720272</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -27971,7 +27973,7 @@
         <v>13.35262508576585</v>
       </c>
       <c r="P9" t="n">
-        <v>39.27687031530112</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q9" t="n">
         <v>99.99981508242075</v>
@@ -28041,10 +28043,10 @@
         <v>95.01217681172437</v>
       </c>
       <c r="M10" t="n">
-        <v>95.36364612318765</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N10" t="n">
-        <v>81.48840304191191</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O10" t="n">
         <v>105.2757017540986</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278457</v>
+        <v>1.203691870229535</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068175</v>
+        <v>12.32730936598823</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375527</v>
+        <v>46.40533082702422</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>102.1618428708941</v>
       </c>
       <c r="K2" t="n">
-        <v>175.5876105099509</v>
+        <v>153.1141197377104</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562028</v>
+        <v>189.9516048112476</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835248</v>
+        <v>211.3577601084421</v>
       </c>
       <c r="N2" t="n">
-        <v>246.301986476946</v>
+        <v>214.7777496347318</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>202.8085386001368</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987526</v>
+        <v>173.0923955538451</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>129.9851804512498</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392171</v>
+        <v>75.61140944330613</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764537</v>
+        <v>27.42912849285557</v>
       </c>
       <c r="T2" t="n">
-        <v>6.042547998838949</v>
+        <v>5.269161161929794</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.09629534961836282</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.644031928491209</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640613</v>
+        <v>6.21999257253352</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>22.1739063098947</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038076</v>
+        <v>60.84689373521551</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003671</v>
+        <v>103.9970329441265</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>139.8368448243741</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>163.1830022321805</v>
       </c>
       <c r="N3" t="n">
-        <v>192.0872539218749</v>
+        <v>167.5019707350886</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>153.231579056415</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>122.9818513274134</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.276588781299</v>
+        <v>82.21011073161469</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913376</v>
+        <v>39.98647359526999</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>11.96261060158012</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.595900624050091</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.04237052161126377</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.5399347344123883</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>4.800510638684692</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>16.23731001305619</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048877</v>
+        <v>38.17338572295585</v>
       </c>
       <c r="K4" t="n">
-        <v>71.937950780384</v>
+        <v>62.73059914354837</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929581</v>
+        <v>80.27356951436545</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716445</v>
+        <v>84.63722386793464</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665141</v>
+        <v>82.62473985785216</v>
       </c>
       <c r="O4" t="n">
-        <v>87.5188778351652</v>
+        <v>76.31732046039834</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133245</v>
+        <v>65.30265187838556</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964924</v>
+        <v>45.21217126065918</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467756</v>
+        <v>24.2774290582152</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>9.409589871532255</v>
       </c>
       <c r="T4" t="n">
-        <v>2.64560538863697</v>
+        <v>2.306993865216568</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.02945098551340303</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,13 +31293,13 @@
         <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>217.8319573562029</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M5" t="n">
         <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>246.301986476946</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O5" t="n">
         <v>232.5759815281271</v>
@@ -31315,7 +31317,7 @@
         <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.04254799883895</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U5" t="n">
         <v>0.1104292038622766</v>
@@ -31358,7 +31360,7 @@
         <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.132938719640613</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I6" t="n">
         <v>25.42850542651172</v>
@@ -31367,7 +31369,7 @@
         <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>119.2613101003672</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L6" t="n">
         <v>160.3615491897405</v>
@@ -31385,10 +31387,10 @@
         <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.276588781299</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R6" t="n">
-        <v>45.85553156913376</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S6" t="n">
         <v>13.71843573009899</v>
@@ -31452,7 +31454,7 @@
         <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>97.05994407716445</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N7" t="n">
         <v>94.75207554665143</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5333255238464</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H8" t="n">
         <v>15.70317002109195</v>
@@ -31540,19 +31542,19 @@
         <v>258.3481008559754</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860173</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q8" t="n">
         <v>165.5819066632681</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731652</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S8" t="n">
         <v>34.94065537464989</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637621</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U8" t="n">
         <v>0.122666041907712</v>
@@ -31592,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334779</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H9" t="n">
         <v>7.923351154462802</v>
@@ -31601,7 +31603,7 @@
         <v>28.2462790928851</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214496</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K9" t="n">
         <v>132.476848071688</v>
@@ -31625,7 +31627,7 @@
         <v>104.7235295183857</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215052</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S9" t="n">
         <v>15.23859770170297</v>
@@ -31671,28 +31673,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H10" t="n">
-        <v>6.115140985697429</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458802</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J10" t="n">
         <v>48.62725096704384</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009515</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L10" t="n">
         <v>102.2566622495866</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001847</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384916</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O10" t="n">
         <v>97.21698573172148</v>
@@ -31713,7 +31715,7 @@
         <v>2.938769185355612</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H11" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I11" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J11" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K11" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L11" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M11" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P11" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R11" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S11" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T11" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H12" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I12" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J12" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K12" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R12" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S12" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T12" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H13" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I13" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J13" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K13" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L13" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M13" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N13" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O13" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P13" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R13" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S13" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T13" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H14" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I14" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J14" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K14" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L14" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M14" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>318.1162760573385</v>
+        <v>323.2548334362891</v>
       </c>
       <c r="P14" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R14" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S14" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T14" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671646</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H15" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I15" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J15" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K15" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R15" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691735</v>
       </c>
       <c r="S15" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T15" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H16" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I16" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J16" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K16" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L16" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M16" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N16" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O16" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R16" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S16" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T16" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H17" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I17" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J17" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K17" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L17" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M17" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P17" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R17" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S17" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T17" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H18" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I18" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J18" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K18" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R18" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S18" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T18" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H19" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I19" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J19" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K19" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L19" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M19" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N19" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O19" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P19" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R19" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S19" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T19" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H20" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I20" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J20" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K20" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L20" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M20" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P20" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R20" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S20" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T20" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H21" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I21" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J21" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K21" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R21" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S21" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T21" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H22" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I22" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J22" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K22" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L22" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M22" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N22" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O22" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P22" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R22" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S22" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T22" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H23" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I23" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J23" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K23" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L23" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M23" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N23" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P23" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R23" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S23" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T23" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H24" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I24" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J24" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K24" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32804,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R24" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S24" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T24" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H25" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I25" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J25" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K25" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L25" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M25" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N25" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O25" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P25" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R25" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S25" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T25" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H26" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I26" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J26" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K26" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L26" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M26" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N26" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P26" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R26" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S26" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T26" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H27" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I27" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J27" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K27" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33041,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R27" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S27" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T27" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H28" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I28" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J28" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K28" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L28" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M28" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N28" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O28" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R28" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S28" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T28" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H29" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I29" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J29" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K29" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L29" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M29" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P29" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R29" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S29" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T29" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H30" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I30" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J30" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K30" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33278,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R30" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S30" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T30" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H31" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I31" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J31" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K31" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L31" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M31" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N31" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O31" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P31" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R31" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S31" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T31" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H32" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I32" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J32" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K32" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L32" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M32" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P32" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R32" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S32" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T32" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H33" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I33" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J33" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K33" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33515,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R33" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S33" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T33" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H34" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I34" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J34" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K34" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L34" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M34" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N34" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O34" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R34" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S34" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T34" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H35" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I35" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J35" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K35" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L35" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M35" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N35" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P35" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R35" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S35" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T35" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H36" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I36" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J36" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K36" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33752,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R36" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S36" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T36" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H37" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I37" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J37" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K37" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L37" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M37" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N37" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O37" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P37" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R37" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S37" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T37" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H38" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I38" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J38" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K38" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L38" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M38" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N38" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P38" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R38" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S38" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T38" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H39" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I39" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J39" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K39" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33989,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R39" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S39" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T39" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H40" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I40" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J40" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K40" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L40" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M40" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N40" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O40" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P40" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R40" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S40" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T40" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H41" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I41" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J41" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K41" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L41" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M41" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N41" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P41" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R41" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S41" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T41" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H42" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I42" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J42" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K42" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34226,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R42" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S42" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T42" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H43" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I43" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J43" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K43" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L43" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M43" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N43" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O43" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P43" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R43" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S43" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T43" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.88805647888858</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H44" t="n">
-        <v>19.33605841441767</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I44" t="n">
-        <v>72.78929740235206</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J44" t="n">
-        <v>160.2464335750698</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K44" t="n">
-        <v>240.1678643264234</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L44" t="n">
-        <v>297.9494727922099</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M44" t="n">
-        <v>331.5261971986446</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N44" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>318.1162760573385</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P44" t="n">
-        <v>271.5048817347766</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.8888590845793</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R44" t="n">
-        <v>118.6006277919849</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S44" t="n">
-        <v>43.02408701267356</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T44" t="n">
-        <v>8.264967236334764</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1510445183110864</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.010199275473263</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H45" t="n">
-        <v>9.756398265754939</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I45" t="n">
-        <v>34.78098382660139</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J45" t="n">
-        <v>95.4416780393402</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K45" t="n">
-        <v>163.1250294960489</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34463,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>192.9037546296269</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.9510513744467</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R45" t="n">
-        <v>62.72096905087509</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S45" t="n">
-        <v>18.76400847205819</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T45" t="n">
-        <v>4.071811991929511</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06646047864955681</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8469171377637509</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H46" t="n">
-        <v>7.529863279390446</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I46" t="n">
-        <v>25.46910810656808</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J46" t="n">
-        <v>59.87704163989719</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K46" t="n">
-        <v>98.39637291473394</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L46" t="n">
-        <v>125.913480645349</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M46" t="n">
-        <v>132.7581109678214</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N46" t="n">
-        <v>129.6014198179748</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O46" t="n">
-        <v>119.7078877995528</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P46" t="n">
-        <v>102.4307781891722</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.91776141765374</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R46" t="n">
-        <v>38.08047421254101</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S46" t="n">
-        <v>14.75945593721009</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T46" t="n">
-        <v>3.618645952263298</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0461954802416592</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_24_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>808498.9400602777</v>
+        <v>718687.9162444511</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3005708.072387988</v>
+        <v>2394192.127575332</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19600786.20290227</v>
+        <v>18989270.25808961</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6235945.016442256</v>
+        <v>6544948.177526013</v>
       </c>
     </row>
     <row r="11">
@@ -8692,10 +8692,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>8.745422743908065</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>27.75337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>42.24342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.41251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>44.67260637956007</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>42.39083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>35.10170646165069</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>16.98916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.632694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>11.83563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>42.24342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.41251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>44.67260637956007</v>
@@ -9339,7 +9339,7 @@
         <v>42.39083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>35.10170646165069</v>
       </c>
       <c r="Q19" t="n">
         <v>16.98916917821538</v>
@@ -9403,7 +9403,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>77.83409231047494</v>
       </c>
       <c r="L20" t="n">
         <v>42.0461076913395</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>13.26380076792782</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>17.08626916697543</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>11.83563415094341</v>
@@ -9804,7 +9804,7 @@
         <v>42.24342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.41251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>44.67260637956007</v>
@@ -9877,10 +9877,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>17.08626916697543</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10518,10 +10518,10 @@
         <v>46.41251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>44.67260637956007</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>42.39083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>35.10170646165069</v>
@@ -10588,10 +10588,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>77.83409231047497</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>17.08626916697543</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>27.75337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>42.24342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>46.41251183645587</v>
@@ -10995,13 +10995,13 @@
         <v>44.67260637956007</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>42.39083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>35.10170646165069</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>16.98916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>17.08626916697543</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>42.24342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.41251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>44.67260637956007</v>
@@ -11299,10 +11299,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         <v>42.24342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.41251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>44.67260637956007</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>42.39083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>35.10170646165069</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.20985652598359</v>
+        <v>22.20985652598358</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.05689605041565</v>
+        <v>22.05689605041567</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23284,10 +23284,10 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K11" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,10 +23296,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>62.73788191118649</v>
@@ -23363,7 +23363,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K12" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23439,28 +23439,28 @@
         <v>160.8706327044453</v>
       </c>
       <c r="J13" t="n">
-        <v>124.8865636236802</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K13" t="n">
-        <v>88.69611276210766</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L13" t="n">
-        <v>69.3214679998587</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M13" t="n">
-        <v>68.27639578424916</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N13" t="n">
-        <v>55.045226973052</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O13" t="n">
-        <v>80.85114870243615</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P13" t="n">
-        <v>97.34185526750879</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q13" t="n">
-        <v>149.512763253675</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R13" t="n">
         <v>210.7893088381176</v>
@@ -23521,10 +23521,10 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K14" t="n">
-        <v>77.83409231047494</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,13 +23533,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.26380076792782</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.73788191118646</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R14" t="n">
         <v>177.6911867688939</v>
@@ -23600,7 +23600,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K15" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>19.06924187859266</v>
       </c>
       <c r="R15" t="n">
-        <v>137.4865345694365</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S15" t="n">
         <v>202.9648742847568</v>
@@ -23758,10 +23758,10 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K17" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,10 +23770,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>62.73788191118649</v>
@@ -23831,13 +23831,13 @@
         <v>135.1206313132817</v>
       </c>
       <c r="I18" t="n">
-        <v>110.2086769395097</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J18" t="n">
-        <v>88.51667398321378</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K18" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.68933668991343</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R18" t="n">
-        <v>149.32216872038</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S18" t="n">
         <v>202.9648742847568</v>
@@ -23922,7 +23922,7 @@
         <v>27.07804559905455</v>
       </c>
       <c r="M19" t="n">
-        <v>68.27639578424916</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N19" t="n">
         <v>10.37262059349192</v>
@@ -23931,7 +23931,7 @@
         <v>38.4603154473067</v>
       </c>
       <c r="P19" t="n">
-        <v>97.34185526750879</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q19" t="n">
         <v>132.5235940754596</v>
@@ -23995,7 +23995,7 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K20" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24007,13 +24007,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.73788191118649</v>
+        <v>62.73788191118646</v>
       </c>
       <c r="R20" t="n">
         <v>177.6911867688939</v>
@@ -24074,7 +24074,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K21" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>19.06924187859266</v>
       </c>
       <c r="R21" t="n">
-        <v>137.4865345694366</v>
+        <v>137.4865345694365</v>
       </c>
       <c r="S21" t="n">
         <v>202.9648742847568</v>
@@ -24232,10 +24232,10 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K23" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,13 +24244,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>117.9397794827617</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R23" t="n">
         <v>177.6911867688939</v>
@@ -24311,7 +24311,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K24" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.68933668991343</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R24" t="n">
         <v>137.4865345694366</v>
@@ -24396,7 +24396,7 @@
         <v>27.07804559905455</v>
       </c>
       <c r="M25" t="n">
-        <v>68.27639578424916</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N25" t="n">
         <v>10.37262059349192</v>
@@ -24469,10 +24469,10 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K26" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,10 +24481,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>62.73788191118649</v>
@@ -24548,7 +24548,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K27" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24706,10 +24706,10 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K29" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,10 +24718,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>62.73788191118649</v>
@@ -24785,7 +24785,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K30" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24940,13 +24940,13 @@
         <v>233.6650823796813</v>
       </c>
       <c r="J32" t="n">
-        <v>101.9447284737456</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K32" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,13 +24955,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>117.9397794827617</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R32" t="n">
         <v>177.6911867688939</v>
@@ -25022,7 +25022,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K33" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25110,10 +25110,10 @@
         <v>21.86388394779328</v>
       </c>
       <c r="N34" t="n">
-        <v>55.045226973052</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O34" t="n">
-        <v>80.85114870243615</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P34" t="n">
         <v>62.24014880585811</v>
@@ -25180,10 +25180,10 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K35" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,10 +25192,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>62.73788191118649</v>
@@ -25259,7 +25259,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K36" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25420,7 +25420,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,13 +25429,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>117.9397794827617</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R38" t="n">
         <v>177.6911867688939</v>
@@ -25496,7 +25496,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K39" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25578,7 +25578,7 @@
         <v>60.94273351249801</v>
       </c>
       <c r="L40" t="n">
-        <v>69.3214679998587</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M40" t="n">
         <v>21.86388394779328</v>
@@ -25587,13 +25587,13 @@
         <v>10.37262059349192</v>
       </c>
       <c r="O40" t="n">
-        <v>80.85114870243615</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P40" t="n">
-        <v>97.34185526750879</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q40" t="n">
-        <v>149.512763253675</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R40" t="n">
         <v>210.7893088381176</v>
@@ -25651,13 +25651,13 @@
         <v>233.6650823796813</v>
       </c>
       <c r="J41" t="n">
-        <v>101.9447284737456</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K41" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,13 +25666,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>117.9397794827617</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R41" t="n">
         <v>177.6911867688939</v>
@@ -25733,7 +25733,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K42" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25818,7 +25818,7 @@
         <v>27.07804559905455</v>
       </c>
       <c r="M43" t="n">
-        <v>68.27639578424916</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N43" t="n">
         <v>10.37262059349192</v>
@@ -25891,10 +25891,10 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K44" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>42.0461076913395</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25903,10 +25903,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.26380076792788</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>62.73788191118649</v>
@@ -25970,7 +25970,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K45" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -26055,13 +26055,13 @@
         <v>27.07804559905455</v>
       </c>
       <c r="M46" t="n">
-        <v>68.27639578424916</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N46" t="n">
         <v>10.37262059349192</v>
       </c>
       <c r="O46" t="n">
-        <v>80.85114870243615</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P46" t="n">
         <v>62.24014880585811</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349524.607806964</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360625.587970188</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349643.0815448899</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>366482.6107715917</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>346933.8271063365</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>360625.587970188</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>360625.587970188</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>343154.9579655085</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>360625.587970188</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>358035.7971828931</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>344862.2969330343</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>356895.8474763414</v>
+        <v>390508.0450030975</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570614.0911276561</v>
+        <v>570614.0911276559</v>
       </c>
       <c r="C2" t="n">
-        <v>570622.5290386393</v>
+        <v>570622.5290386392</v>
       </c>
       <c r="D2" t="n">
-        <v>570629.8344309521</v>
+        <v>570629.8344309522</v>
       </c>
       <c r="E2" t="n">
-        <v>178111.6825064739</v>
+        <v>192163.1466880054</v>
       </c>
       <c r="F2" t="n">
-        <v>181917.7328481507</v>
+        <v>192163.1466880053</v>
       </c>
       <c r="G2" t="n">
-        <v>178152.3020737628</v>
+        <v>192163.1466880054</v>
       </c>
       <c r="H2" t="n">
-        <v>183925.854951489</v>
+        <v>192163.1466880053</v>
       </c>
       <c r="I2" t="n">
-        <v>177223.4148376873</v>
+        <v>192163.1466880054</v>
       </c>
       <c r="J2" t="n">
-        <v>181917.7328481507</v>
+        <v>192163.1466880054</v>
       </c>
       <c r="K2" t="n">
-        <v>181917.7328481507</v>
+        <v>192163.1466880054</v>
       </c>
       <c r="L2" t="n">
-        <v>175927.802560832</v>
+        <v>192163.1466880054</v>
       </c>
       <c r="M2" t="n">
-        <v>181917.7328481507</v>
+        <v>192163.1466880053</v>
       </c>
       <c r="N2" t="n">
-        <v>181029.8045782211</v>
+        <v>192163.1466880054</v>
       </c>
       <c r="O2" t="n">
-        <v>176513.1759211265</v>
+        <v>192163.1466880054</v>
       </c>
       <c r="P2" t="n">
-        <v>180638.9646788319</v>
+        <v>192163.1466880054</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>438396.5295836808</v>
       </c>
       <c r="C4" t="n">
-        <v>423078.7314798642</v>
+        <v>423078.7314798641</v>
       </c>
       <c r="D4" t="n">
         <v>410331.9762394427</v>
       </c>
       <c r="E4" t="n">
-        <v>8143.883002889123</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="F4" t="n">
-        <v>11949.93334456592</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="G4" t="n">
-        <v>8184.502570177987</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="H4" t="n">
-        <v>13958.0554479043</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="I4" t="n">
-        <v>7255.615334102525</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="J4" t="n">
-        <v>11949.93334456592</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="K4" t="n">
-        <v>11949.93334456592</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="L4" t="n">
-        <v>5960.003057247218</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="M4" t="n">
-        <v>11949.93334456592</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="N4" t="n">
-        <v>11062.00507463626</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="O4" t="n">
-        <v>6545.376417541783</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="P4" t="n">
-        <v>10671.16517524709</v>
+        <v>22195.34718442061</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196460.7756645012</v>
+        <v>-196505.3248586123</v>
       </c>
       <c r="C6" t="n">
-        <v>66412.18436039415</v>
+        <v>66367.98674590739</v>
       </c>
       <c r="D6" t="n">
-        <v>85769.79089221405</v>
+        <v>85725.8976690737</v>
       </c>
       <c r="E6" t="n">
-        <v>82577.31653526775</v>
+        <v>66763.97798950462</v>
       </c>
       <c r="F6" t="n">
-        <v>159563.9586060967</v>
+        <v>143750.6200603335</v>
       </c>
       <c r="G6" t="n">
-        <v>159563.9586060967</v>
+        <v>143750.6200603336</v>
       </c>
       <c r="H6" t="n">
-        <v>159563.9586060967</v>
+        <v>143750.6200603335</v>
       </c>
       <c r="I6" t="n">
-        <v>159563.9586060967</v>
+        <v>143750.6200603336</v>
       </c>
       <c r="J6" t="n">
-        <v>159563.9586060968</v>
+        <v>143750.6200603336</v>
       </c>
       <c r="K6" t="n">
-        <v>159563.9586060968</v>
+        <v>143750.6200603336</v>
       </c>
       <c r="L6" t="n">
-        <v>159563.9586060967</v>
+        <v>143750.6200603336</v>
       </c>
       <c r="M6" t="n">
-        <v>159563.9586060968</v>
+        <v>143750.6200603336</v>
       </c>
       <c r="N6" t="n">
-        <v>159563.9586060968</v>
+        <v>143750.6200603336</v>
       </c>
       <c r="O6" t="n">
-        <v>159563.9586060967</v>
+        <v>143750.6200603336</v>
       </c>
       <c r="P6" t="n">
-        <v>159563.9586060968</v>
+        <v>143750.6200603336</v>
       </c>
     </row>
   </sheetData>
@@ -27651,7 +27651,7 @@
         <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>89.21461903306817</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O5" t="n">
         <v>103.9426526760898</v>
@@ -27721,7 +27721,7 @@
         <v>115.7222665296193</v>
       </c>
       <c r="K6" t="n">
-        <v>82.33179439963287</v>
+        <v>82.33179439963286</v>
       </c>
       <c r="L6" t="n">
         <v>42.27423123832551</v>
@@ -27894,7 +27894,7 @@
         <v>78.17053334824146</v>
       </c>
       <c r="P8" t="n">
-        <v>117.6841293060643</v>
+        <v>117.6841293060644</v>
       </c>
       <c r="Q8" t="n">
         <v>159.5401647781143</v>
@@ -27961,7 +27961,7 @@
         <v>69.11625642831203</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720269</v>
+        <v>24.50430953720272</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -27973,7 +27973,7 @@
         <v>13.35262508576585</v>
       </c>
       <c r="P9" t="n">
-        <v>39.2768703153011</v>
+        <v>39.27687031530112</v>
       </c>
       <c r="Q9" t="n">
         <v>99.99981508242075</v>
@@ -28043,10 +28043,10 @@
         <v>95.01217681172437</v>
       </c>
       <c r="M10" t="n">
-        <v>95.36364612318764</v>
+        <v>95.36364612318765</v>
       </c>
       <c r="N10" t="n">
-        <v>81.48840304191189</v>
+        <v>81.48840304191191</v>
       </c>
       <c r="O10" t="n">
         <v>105.2757017540986</v>
@@ -31293,13 +31293,13 @@
         <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>217.8319573562028</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M5" t="n">
         <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>246.3019864769461</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O5" t="n">
         <v>232.5759815281271</v>
@@ -31317,7 +31317,7 @@
         <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.042547998838951</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U5" t="n">
         <v>0.1104292038622766</v>
@@ -31360,7 +31360,7 @@
         <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.132938719640614</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I6" t="n">
         <v>25.42850542651172</v>
@@ -31369,7 +31369,7 @@
         <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>119.2613101003671</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L6" t="n">
         <v>160.3615491897405</v>
@@ -31387,10 +31387,10 @@
         <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.27658878129901</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R6" t="n">
-        <v>45.85553156913377</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S6" t="n">
         <v>13.71843573009899</v>
@@ -31454,7 +31454,7 @@
         <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>97.05994407716446</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N7" t="n">
         <v>94.75207554665143</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.533325523846401</v>
+        <v>1.5333255238464</v>
       </c>
       <c r="H8" t="n">
         <v>15.70317002109195</v>
@@ -31542,19 +31542,19 @@
         <v>258.3481008559754</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860174</v>
+        <v>220.4941269860173</v>
       </c>
       <c r="Q8" t="n">
         <v>165.5819066632681</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731654</v>
+        <v>96.31775943731652</v>
       </c>
       <c r="S8" t="n">
         <v>34.94065537464989</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637622</v>
+        <v>6.712132480637621</v>
       </c>
       <c r="U8" t="n">
         <v>0.122666041907712</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.8204014819334779</v>
       </c>
       <c r="H9" t="n">
         <v>7.923351154462802</v>
@@ -31603,7 +31603,7 @@
         <v>28.2462790928851</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214497</v>
+        <v>77.50994878214496</v>
       </c>
       <c r="K9" t="n">
         <v>132.476848071688</v>
@@ -31627,7 +31627,7 @@
         <v>104.7235295183857</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215053</v>
+        <v>50.93685692215052</v>
       </c>
       <c r="S9" t="n">
         <v>15.23859770170297</v>
@@ -31673,28 +31673,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.687797043381101</v>
+        <v>0.6877970433811009</v>
       </c>
       <c r="H10" t="n">
-        <v>6.11514098569743</v>
+        <v>6.115140985697429</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458803</v>
+        <v>20.68393290458802</v>
       </c>
       <c r="J10" t="n">
         <v>48.62725096704384</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009517</v>
+        <v>79.90951104009515</v>
       </c>
       <c r="L10" t="n">
         <v>102.2566622495866</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001848</v>
+        <v>107.8153129001847</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384917</v>
+        <v>105.2517057384916</v>
       </c>
       <c r="O10" t="n">
         <v>97.21698573172148</v>
@@ -31715,7 +31715,7 @@
         <v>2.938769185355612</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.03751620236624191</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32013,7 +32013,7 @@
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>323.2548334362891</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P14" t="n">
         <v>275.8905215729843</v>
@@ -32031,7 +32031,7 @@
         <v>8.398471906090791</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1534843523671646</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32101,7 +32101,7 @@
         <v>131.0340079108931</v>
       </c>
       <c r="R15" t="n">
-        <v>63.73410582691735</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S15" t="n">
         <v>19.06710498565942</v>
@@ -32189,7 +32189,7 @@
         <v>3.677098226665192</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04694167948934295</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32487,7 +32487,7 @@
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>323.254833436289</v>
+        <v>323.2548334362891</v>
       </c>
       <c r="P20" t="n">
         <v>275.8905215729843</v>
@@ -32505,7 +32505,7 @@
         <v>8.398471906090791</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1534843523671645</v>
+        <v>0.1534843523671646</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32575,7 +32575,7 @@
         <v>131.0340079108931</v>
       </c>
       <c r="R21" t="n">
-        <v>63.73410582691734</v>
+        <v>63.73410582691735</v>
       </c>
       <c r="S21" t="n">
         <v>19.06710498565942</v>
@@ -32663,7 +32663,7 @@
         <v>3.677098226665192</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04694167948934294</v>
+        <v>0.04694167948934295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
